--- a/data/Excel/indef2020Analyze.xlsx
+++ b/data/Excel/indef2020Analyze.xlsx
@@ -375,17 +375,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N95"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" customWidth="1" width="21"/>
-    <col min="2" max="2" customWidth="1" width="13"/>
+    <col min="1" max="1" customWidth="1" width="30"/>
+    <col min="2" max="2" customWidth="1" width="5"/>
     <col min="3" max="3" customWidth="1" width="7"/>
     <col min="4" max="4" customWidth="1" width="7"/>
-    <col min="5" max="5" customWidth="1" width="7"/>
-    <col min="6" max="6" customWidth="1" width="6"/>
+    <col min="5" max="5" customWidth="1" width="13"/>
+    <col min="6" max="6" customWidth="1" width="7"/>
     <col min="7" max="7" customWidth="1" width="7"/>
     <col min="8" max="8" customWidth="1" width="7"/>
     <col min="9" max="9" customWidth="1" width="6"/>
@@ -398,204 +398,204 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>指标名称</v>
+        <v>准确名称</v>
       </c>
       <c r="B1" t="str">
+        <v>矢量</v>
+      </c>
+      <c r="C1" t="str">
+        <v>二级指标</v>
+      </c>
+      <c r="D1" t="str">
+        <v>一级指标</v>
+      </c>
+      <c r="E1" t="str">
         <v>指标来源</v>
       </c>
-      <c r="C1" t="str">
+      <c r="F1" t="str">
         <v>指标属性</v>
       </c>
-      <c r="D1" t="str">
+      <c r="G1" t="str">
         <v>计量单位</v>
       </c>
-      <c r="E1" t="str">
+      <c r="H1" t="str">
         <v>指标导向</v>
-      </c>
-      <c r="F1" t="str">
-        <v>可评价</v>
-      </c>
-      <c r="G1" t="str">
-        <v>一级指标</v>
-      </c>
-      <c r="H1" t="str">
-        <v>二级指标</v>
       </c>
       <c r="I1" t="str">
         <v>三综监</v>
       </c>
       <c r="J1" t="str">
+        <v>三中监</v>
+      </c>
+      <c r="K1" t="str">
         <v>二综监</v>
-      </c>
-      <c r="K1" t="str">
-        <v>三中监</v>
       </c>
       <c r="L1" t="str">
         <v>三综</v>
       </c>
       <c r="M1" t="str">
+        <v>三中</v>
+      </c>
+      <c r="N1" t="str">
         <v>二综</v>
-      </c>
-      <c r="N1" t="str">
-        <v>三中</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>出院患者手术占比▲</v>
-      </c>
-      <c r="B2" t="str">
+        <v>出院患者手术占比</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <v>功能定位</v>
+      </c>
+      <c r="D2" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E2" t="str">
         <v>病案首页</v>
       </c>
-      <c r="C2" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D2" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E2" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="F2" t="str">
+        <v>定量</v>
       </c>
       <c r="G2" t="str">
-        <v>医疗质量</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H2" t="str">
-        <v>功能定位</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
       <c r="J2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
       </c>
       <c r="M2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>出院患者微创手术占比▲</v>
-      </c>
-      <c r="B3" t="str">
+        <v>出院患者微创手术占比</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>功能定位</v>
+      </c>
+      <c r="D3" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E3" t="str">
         <v>病案首页</v>
       </c>
-      <c r="C3" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D3" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E3" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
+      <c r="F3" t="str">
+        <v>定量</v>
       </c>
       <c r="G3" t="str">
-        <v>医疗质量</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H3" t="str">
-        <v>功能定位</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
       <c r="J3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
       </c>
       <c r="M3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>出院患者三级手术占比▲</v>
-      </c>
-      <c r="B4" t="str">
+        <v>出院患者三级手术占比</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <v>功能定位</v>
+      </c>
+      <c r="D4" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E4" t="str">
         <v>病案首页</v>
       </c>
-      <c r="C4" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D4" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E4" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
+      <c r="F4" t="str">
+        <v>定量</v>
       </c>
       <c r="G4" t="str">
-        <v>医疗质量</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H4" t="str">
-        <v>功能定位</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
       </c>
       <c r="M4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>手术患者并发症发生率▲</v>
-      </c>
-      <c r="B5" t="str">
+        <v>手术患者并发症发生率</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="str">
+        <v>质量安全</v>
+      </c>
+      <c r="D5" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E5" t="str">
         <v>病案首页</v>
       </c>
-      <c r="C5" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D5" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E5" t="str">
+      <c r="F5" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G5" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H5" t="str">
         <v>逐步降低↓</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="str">
-        <v>医疗质量</v>
-      </c>
-      <c r="H5" t="str">
-        <v>质量安全</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -618,72 +618,72 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>低风险组病例死亡率▲</v>
-      </c>
-      <c r="B6" t="str">
+        <v>低风险组病例死亡率</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="str">
+        <v>质量安全</v>
+      </c>
+      <c r="D6" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E6" t="str">
         <v>病案首页</v>
       </c>
-      <c r="C6" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D6" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E6" t="str">
+      <c r="F6" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G6" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H6" t="str">
         <v>逐步降低↓</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="str">
-        <v>医疗质量</v>
-      </c>
-      <c r="H6" t="str">
-        <v>质量安全</v>
-      </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
       </c>
       <c r="M6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>抗菌药物使用强度（DDDs）▲</v>
-      </c>
-      <c r="B7" t="str">
+        <v>抗菌药物使用强度（DDDs）</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="str">
+        <v>合理用药</v>
+      </c>
+      <c r="D7" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E7" t="str">
         <v>医院填报</v>
       </c>
-      <c r="C7" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D7" t="str">
+      <c r="F7" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G7" t="str">
         <v>DDD</v>
       </c>
-      <c r="E7" t="str">
+      <c r="H7" t="str">
         <v>逐步降低↓</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" t="str">
-        <v>医疗质量</v>
-      </c>
-      <c r="H7" t="str">
-        <v>合理用药</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -708,26 +708,26 @@
       <c r="A8" t="str">
         <v>基本药物采购金额占比</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="str">
+        <v>合理用药</v>
+      </c>
+      <c r="D8" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E8" t="str">
         <v>省级药品集中采购平台</v>
       </c>
-      <c r="C8" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D8" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E8" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
+      <c r="F8" t="str">
+        <v>定量</v>
       </c>
       <c r="G8" t="str">
-        <v>医疗质量</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H8" t="str">
-        <v>合理用药</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -742,36 +742,36 @@
         <v>0</v>
       </c>
       <c r="M8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>国家组织药品集中采购中标药品金额占比</v>
-      </c>
-      <c r="B9" t="str">
+        <v>国家组织药品集中采购中标药品金额占比(~药品使用比例)</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="str">
+        <v>合理用药</v>
+      </c>
+      <c r="D9" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E9" t="str">
         <v>医院填报</v>
       </c>
-      <c r="C9" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D9" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E9" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
+      <c r="F9" t="str">
+        <v>定量</v>
       </c>
       <c r="G9" t="str">
-        <v>医疗质量</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H9" t="str">
-        <v>合理用药</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -783,40 +783,40 @@
         <v>0</v>
       </c>
       <c r="L9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
       </c>
       <c r="N9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
         <v>重点监控药品收入占比</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" t="str">
+        <v>合理用药</v>
+      </c>
+      <c r="D10" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E10" t="str">
         <v>医院填报</v>
       </c>
-      <c r="C10" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D10" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E10" t="str">
+      <c r="F10" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G10" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H10" t="str">
         <v>监测比较</v>
       </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" t="str">
-        <v>医疗质量</v>
-      </c>
-      <c r="H10" t="str">
-        <v>合理用药</v>
-      </c>
       <c r="I10" t="b">
         <v>0</v>
       </c>
@@ -830,36 +830,36 @@
         <v>0</v>
       </c>
       <c r="M10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
         <v>重点监控高值医用耗材收入占比</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" t="str">
+        <v>合理用药</v>
+      </c>
+      <c r="D11" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E11" t="str">
         <v>医院填报</v>
       </c>
-      <c r="C11" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D11" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E11" t="str">
+      <c r="F11" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G11" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H11" t="str">
         <v>监测比较</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" t="str">
-        <v>医疗质量</v>
-      </c>
-      <c r="H11" t="str">
-        <v>合理用药</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -882,28 +882,28 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>电子病历应用功能水平分级▲</v>
-      </c>
-      <c r="B12" t="str">
+        <v>电子病历应用功能水平分级</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="str">
+        <v>医疗服务</v>
+      </c>
+      <c r="D12" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E12" t="str">
         <v>国家卫生健康委</v>
       </c>
-      <c r="C12" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D12" t="str">
+      <c r="F12" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G12" t="str">
         <v>级别</v>
       </c>
-      <c r="E12" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" t="str">
-        <v>医疗质量</v>
-      </c>
       <c r="H12" t="str">
-        <v>医疗服务</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -928,26 +928,26 @@
       <c r="A13" t="str">
         <v>省级室间质量评价临床检验项目参加率与合格率</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="str">
+        <v>医疗服务</v>
+      </c>
+      <c r="D13" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E13" t="str">
         <v>省级卫生健康委</v>
       </c>
-      <c r="C13" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D13" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E13" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F13" t="b">
-        <v>1</v>
+      <c r="F13" t="str">
+        <v>定量</v>
       </c>
       <c r="G13" t="str">
-        <v>医疗质量</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H13" t="str">
-        <v>医疗服务</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -962,124 +962,124 @@
         <v>0</v>
       </c>
       <c r="M13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>平均住院日▲</v>
-      </c>
-      <c r="B14" t="str">
+        <v>平均住院日</v>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" t="str">
+        <v>医疗服务</v>
+      </c>
+      <c r="D14" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E14" t="str">
         <v>病案首页</v>
       </c>
-      <c r="C14" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D14" t="str">
+      <c r="F14" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G14" t="str">
         <v>天</v>
       </c>
-      <c r="E14" t="str">
+      <c r="H14" t="str">
         <v>监测比较</v>
       </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" t="str">
-        <v>医疗质量</v>
-      </c>
-      <c r="H14" t="str">
-        <v>医疗服务</v>
-      </c>
       <c r="I14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
       </c>
       <c r="M14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>医疗盈余率▲</v>
-      </c>
-      <c r="B15" t="str">
+        <v>医疗盈余率(收支结余)</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="str">
+        <v>收支结构</v>
+      </c>
+      <c r="D15" t="str">
+        <v>运营效率</v>
+      </c>
+      <c r="E15" t="str">
         <v>财务年报表</v>
       </c>
-      <c r="C15" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D15" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E15" t="str">
+      <c r="F15" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G15" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H15" t="str">
         <v>监测比较</v>
       </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" t="str">
-        <v>运营效率</v>
-      </c>
-      <c r="H15" t="str">
-        <v>收支结构</v>
-      </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
       </c>
       <c r="K15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
       </c>
       <c r="N15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>资产负债率▲</v>
-      </c>
-      <c r="B16" t="str">
+        <v>资产负债率</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="str">
+        <v>收支结构</v>
+      </c>
+      <c r="D16" t="str">
+        <v>运营效率</v>
+      </c>
+      <c r="E16" t="str">
         <v>财务年报表</v>
       </c>
-      <c r="C16" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D16" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E16" t="str">
+      <c r="F16" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G16" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H16" t="str">
         <v>监测比较</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" t="str">
-        <v>运营效率</v>
-      </c>
-      <c r="H16" t="str">
-        <v>收支结构</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -1102,117 +1102,117 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>人员经费占比▲</v>
-      </c>
-      <c r="B17" t="str">
+        <v>人员经费占比(人员支出占业务支出比重)</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="str">
+        <v>收支结构</v>
+      </c>
+      <c r="D17" t="str">
+        <v>运营效率</v>
+      </c>
+      <c r="E17" t="str">
         <v>财务年报表</v>
       </c>
-      <c r="C17" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D17" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E17" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F17" t="b">
-        <v>1</v>
+      <c r="F17" t="str">
+        <v>定量</v>
       </c>
       <c r="G17" t="str">
-        <v>运营效率</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H17" t="str">
-        <v>收支结构</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
       </c>
       <c r="K17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="b">
         <v>1</v>
       </c>
       <c r="N17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>万元收入能耗占比▲</v>
-      </c>
-      <c r="B18" t="str">
+        <v>万元收入能耗占比(~能耗支出)</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="str">
+        <v>收支结构</v>
+      </c>
+      <c r="D18" t="str">
+        <v>运营效率</v>
+      </c>
+      <c r="E18" t="str">
         <v>财务年报表</v>
       </c>
-      <c r="C18" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D18" t="str">
+      <c r="F18" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G18" t="str">
         <v>吨标煤/万元</v>
       </c>
-      <c r="E18" t="str">
+      <c r="H18" t="str">
         <v>逐步降低↓</v>
       </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" t="str">
-        <v>运营效率</v>
-      </c>
-      <c r="H18" t="str">
-        <v>收支结构</v>
-      </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="b">
         <v>1</v>
       </c>
       <c r="K18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
       </c>
       <c r="N18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
         <v>医疗收入中来自医保基金的比例（包括门诊、住院收入中来自医保基金的比例）</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" t="str">
+        <v>收支结构</v>
+      </c>
+      <c r="D19" t="str">
+        <v>运营效率</v>
+      </c>
+      <c r="E19" t="str">
         <v>财务年报表</v>
       </c>
-      <c r="C19" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D19" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E19" t="str">
+      <c r="F19" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G19" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H19" t="str">
         <v>监测比较</v>
       </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" t="str">
-        <v>运营效率</v>
-      </c>
-      <c r="H19" t="str">
-        <v>收支结构</v>
-      </c>
       <c r="I19" t="b">
         <v>0</v>
       </c>
@@ -1226,36 +1226,36 @@
         <v>0</v>
       </c>
       <c r="M19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>医疗服务收入（不含药品、耗材、检查检验收入）占医疗收入比例▲</v>
-      </c>
-      <c r="B20" t="str">
+        <v>医疗服务收入（不含药品、耗材、检查检验收入）占医疗收入比例</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="str">
+        <v>收支结构</v>
+      </c>
+      <c r="D20" t="str">
+        <v>运营效率</v>
+      </c>
+      <c r="E20" t="str">
         <v>财务年报表</v>
       </c>
-      <c r="C20" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D20" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E20" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F20" t="b">
-        <v>1</v>
+      <c r="F20" t="str">
+        <v>定量</v>
       </c>
       <c r="G20" t="str">
-        <v>运营效率</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H20" t="str">
-        <v>收支结构</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -1278,37 +1278,37 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>医疗收入增幅▲</v>
-      </c>
-      <c r="B21" t="str">
+        <v>医疗收入增幅</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" t="str">
+        <v>费用控制</v>
+      </c>
+      <c r="D21" t="str">
+        <v>运营效率</v>
+      </c>
+      <c r="E21" t="str">
         <v>财务年报表</v>
       </c>
-      <c r="C21" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D21" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E21" t="str">
+      <c r="F21" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G21" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H21" t="str">
         <v>监测比较</v>
       </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" t="str">
-        <v>运营效率</v>
-      </c>
-      <c r="H21" t="str">
-        <v>费用控制</v>
-      </c>
       <c r="I21" t="b">
         <v>0</v>
       </c>
       <c r="J21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="b">
         <v>1</v>
@@ -1322,116 +1322,116 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>次均费用增幅▲</v>
-      </c>
-      <c r="B22" t="str">
+        <v>次均费用增幅</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="str">
+        <v>费用控制</v>
+      </c>
+      <c r="D22" t="str">
+        <v>运营效率</v>
+      </c>
+      <c r="E22" t="str">
         <v>财务年报表</v>
       </c>
-      <c r="C22" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D22" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E22" t="str">
+      <c r="F22" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G22" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H22" t="str">
         <v>逐步降低↓</v>
       </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" t="str">
-        <v>运营效率</v>
-      </c>
-      <c r="H22" t="str">
-        <v>费用控制</v>
-      </c>
       <c r="I22" t="b">
         <v>0</v>
       </c>
       <c r="J22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
       </c>
       <c r="M22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>次均药品费用增幅▲</v>
-      </c>
-      <c r="B23" t="str">
+        <v>次均药品费用增幅</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" t="str">
+        <v>费用控制</v>
+      </c>
+      <c r="D23" t="str">
+        <v>运营效率</v>
+      </c>
+      <c r="E23" t="str">
         <v>财务年报表</v>
       </c>
-      <c r="C23" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D23" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E23" t="str">
+      <c r="F23" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G23" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H23" t="str">
         <v>逐步降低↓</v>
       </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" t="str">
-        <v>运营效率</v>
-      </c>
-      <c r="H23" t="str">
-        <v>费用控制</v>
-      </c>
       <c r="I23" t="b">
         <v>0</v>
       </c>
       <c r="J23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
       </c>
       <c r="M23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>医护比▲</v>
-      </c>
-      <c r="B24" t="str">
+        <v>医护比</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="str">
+        <v>人员结构</v>
+      </c>
+      <c r="D24" t="str">
+        <v>持续发展</v>
+      </c>
+      <c r="E24" t="str">
         <v>国家医疗机构、医师、护士电子化注册系统</v>
       </c>
-      <c r="C24" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D24" t="str">
+      <c r="F24" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G24" t="str">
         <v>比值（1:X）</v>
       </c>
-      <c r="E24" t="str">
+      <c r="H24" t="str">
         <v>监测比较</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" t="str">
-        <v>持续发展</v>
-      </c>
-      <c r="H24" t="str">
-        <v>人员结构</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
@@ -1454,72 +1454,72 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>麻醉、儿科、重症、病理、中医医师占比▲</v>
-      </c>
-      <c r="B25" t="str">
+        <v>麻醉、儿科、重症、病理、中医医师占比</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" t="str">
+        <v>人员结构</v>
+      </c>
+      <c r="D25" t="str">
+        <v>持续发展</v>
+      </c>
+      <c r="E25" t="str">
         <v>国家医疗机构、医师、护士电子化注册系统</v>
       </c>
-      <c r="C25" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D25" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E25" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F25" t="b">
-        <v>1</v>
+      <c r="F25" t="str">
+        <v>定量</v>
       </c>
       <c r="G25" t="str">
-        <v>持续发展</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H25" t="str">
-        <v>人员结构</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
       </c>
       <c r="J25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="b">
         <v>1</v>
       </c>
       <c r="M25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
         <v>人才培养经费投入占比</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="str">
+        <v>学科建设</v>
+      </c>
+      <c r="D26" t="str">
+        <v>持续发展</v>
+      </c>
+      <c r="E26" t="str">
         <v>医院填报</v>
       </c>
-      <c r="C26" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D26" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E26" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F26" t="b">
-        <v>1</v>
+      <c r="F26" t="str">
+        <v>定量</v>
       </c>
       <c r="G26" t="str">
-        <v>持续发展</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H26" t="str">
-        <v>学科建设</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -1534,124 +1534,124 @@
         <v>0</v>
       </c>
       <c r="M26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>专科能力▲</v>
-      </c>
-      <c r="B27" t="str">
+        <v>专科能力</v>
+      </c>
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" t="str">
+        <v>学科建设</v>
+      </c>
+      <c r="D27" t="str">
+        <v>持续发展</v>
+      </c>
+      <c r="E27" t="str">
         <v>病案首页</v>
       </c>
-      <c r="C27" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D27" t="str">
+      <c r="F27" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G27" t="str">
         <v>人、天、元、%</v>
       </c>
-      <c r="E27" t="str">
+      <c r="H27" t="str">
         <v>监测比较</v>
       </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" t="str">
-        <v>持续发展</v>
-      </c>
-      <c r="H27" t="str">
-        <v>学科建设</v>
-      </c>
       <c r="I27" t="b">
         <v>0</v>
       </c>
       <c r="J27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
       </c>
       <c r="M27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>患者满意度▲</v>
-      </c>
-      <c r="B28" t="str">
+        <v>患者满意度</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" t="str">
+        <v>患者满意度</v>
+      </c>
+      <c r="D28" t="str">
+        <v>满意度评价</v>
+      </c>
+      <c r="E28" t="str">
         <v>国家公立医院满意度调查平台</v>
       </c>
-      <c r="C28" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D28" t="str">
+      <c r="F28" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G28" t="str">
         <v>分值</v>
       </c>
-      <c r="E28" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" t="str">
-        <v>满意度评价</v>
-      </c>
       <c r="H28" t="str">
-        <v>患者满意度</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
       </c>
       <c r="J28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
       </c>
       <c r="M28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>医务人员满意度▲</v>
-      </c>
-      <c r="B29" t="str">
+        <v>医务人员满意度</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="str">
+        <v>医务人员满意度</v>
+      </c>
+      <c r="D29" t="str">
+        <v>满意度评价</v>
+      </c>
+      <c r="E29" t="str">
         <v>国家公立医院满意度调查平台</v>
       </c>
-      <c r="C29" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D29" t="str">
+      <c r="F29" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G29" t="str">
         <v>分值</v>
       </c>
-      <c r="E29" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F29" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" t="str">
-        <v>满意度评价</v>
-      </c>
       <c r="H29" t="str">
-        <v>医务人员满意度</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
@@ -1676,26 +1676,26 @@
       <c r="A30" t="str">
         <v>门诊人次数与出院人次数比</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" t="str">
+        <v>功能定位</v>
+      </c>
+      <c r="D30" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E30" t="str">
         <v>医院填报</v>
       </c>
-      <c r="C30" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D30" t="str">
+      <c r="F30" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G30" t="str">
         <v>比值（X:1）</v>
       </c>
-      <c r="E30" t="str">
+      <c r="H30" t="str">
         <v>监测比较</v>
-      </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" t="str">
-        <v>医疗质量</v>
-      </c>
-      <c r="H30" t="str">
-        <v>功能定位</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -1720,26 +1720,26 @@
       <c r="A31" t="str">
         <v>下转患者人次数（门急诊、住院）</v>
       </c>
-      <c r="B31" t="str">
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" t="str">
+        <v>功能定位</v>
+      </c>
+      <c r="D31" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E31" t="str">
         <v>医院填报</v>
       </c>
-      <c r="C31" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D31" t="str">
+      <c r="F31" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G31" t="str">
         <v>人次</v>
       </c>
-      <c r="E31" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F31" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" t="str">
-        <v>医疗质量</v>
-      </c>
       <c r="H31" t="str">
-        <v>功能定位</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -1754,37 +1754,37 @@
         <v>1</v>
       </c>
       <c r="M31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
         <v>日间手术占择期手术比例</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" t="str">
+        <v>功能定位</v>
+      </c>
+      <c r="D32" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E32" t="str">
         <v>医院填报</v>
       </c>
-      <c r="C32" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D32" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E32" t="str">
+      <c r="F32" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G32" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H32" t="str">
         <v>监测比较</v>
       </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" t="str">
-        <v>医疗质量</v>
-      </c>
-      <c r="H32" t="str">
-        <v>功能定位</v>
-      </c>
       <c r="I32" t="b">
         <v>0</v>
       </c>
@@ -1798,36 +1798,36 @@
         <v>1</v>
       </c>
       <c r="M32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>出院患者四级手术比例▲</v>
-      </c>
-      <c r="B33" t="str">
+        <v>出院患者四级手术比例</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" t="str">
+        <v>功能定位</v>
+      </c>
+      <c r="D33" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E33" t="str">
         <v>病案首页</v>
       </c>
-      <c r="C33" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D33" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E33" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F33" t="b">
-        <v>1</v>
+      <c r="F33" t="str">
+        <v>定量</v>
       </c>
       <c r="G33" t="str">
-        <v>医疗质量</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H33" t="str">
-        <v>功能定位</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
@@ -1852,26 +1852,26 @@
       <c r="A34" t="str">
         <v>特需医疗服务占比</v>
       </c>
-      <c r="B34" t="str">
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" t="str">
+        <v>功能定位</v>
+      </c>
+      <c r="D34" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E34" t="str">
         <v>医院填报</v>
       </c>
-      <c r="C34" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D34" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E34" t="str">
+      <c r="F34" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G34" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H34" t="str">
         <v>监测比较</v>
-      </c>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34" t="str">
-        <v>医疗质量</v>
-      </c>
-      <c r="H34" t="str">
-        <v>功能定位</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -1894,72 +1894,72 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>I类切口手术部位感染率▲</v>
-      </c>
-      <c r="B35" t="str">
+        <v>I类切口手术部位感染率</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" t="str">
+        <v>质量安全</v>
+      </c>
+      <c r="D35" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E35" t="str">
         <v>病案首页</v>
       </c>
-      <c r="C35" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D35" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E35" t="str">
+      <c r="F35" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G35" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H35" t="str">
         <v>逐步降低↓</v>
       </c>
-      <c r="F35" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" t="str">
-        <v>医疗质量</v>
-      </c>
-      <c r="H35" t="str">
-        <v>质量安全</v>
-      </c>
       <c r="I35" t="b">
         <v>1</v>
       </c>
       <c r="J35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="b">
         <v>1</v>
       </c>
       <c r="M35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>单病种质量控制▲</v>
-      </c>
-      <c r="B36" t="str">
+        <v>单病种质量控制</v>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" t="str">
+        <v>质量安全</v>
+      </c>
+      <c r="D36" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E36" t="str">
         <v>病案首页</v>
       </c>
-      <c r="C36" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D36" t="str">
+      <c r="F36" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G36" t="str">
         <v>人、天、元、百分比（%）</v>
       </c>
-      <c r="E36" t="str">
+      <c r="H36" t="str">
         <v>逐步降低↓</v>
-      </c>
-      <c r="F36" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" t="str">
-        <v>医疗质量</v>
-      </c>
-      <c r="H36" t="str">
-        <v>质量安全</v>
       </c>
       <c r="I36" t="b">
         <v>1</v>
@@ -1984,27 +1984,27 @@
       <c r="A37" t="str">
         <v>大型医用设备检查阳性率</v>
       </c>
-      <c r="B37" t="str">
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" t="str">
+        <v>质量安全</v>
+      </c>
+      <c r="D37" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E37" t="str">
         <v>医院填报</v>
       </c>
-      <c r="C37" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D37" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E37" t="str">
+      <c r="F37" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G37" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H37" t="str">
         <v>监测比较</v>
       </c>
-      <c r="F37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" t="str">
-        <v>医疗质量</v>
-      </c>
-      <c r="H37" t="str">
-        <v>质量安全</v>
-      </c>
       <c r="I37" t="b">
         <v>0</v>
       </c>
@@ -2018,37 +2018,37 @@
         <v>1</v>
       </c>
       <c r="M37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
         <v>大型医用设备维修保养及质量控制管理</v>
       </c>
-      <c r="B38" t="str">
+      <c r="B38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" t="str">
+        <v>质量安全</v>
+      </c>
+      <c r="D38" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E38" t="str">
         <v>医院填报</v>
       </c>
-      <c r="C38" t="str">
+      <c r="F38" t="str">
         <v>定性</v>
       </c>
-      <c r="D38" t="str">
+      <c r="G38" t="str">
         <v>无</v>
       </c>
-      <c r="E38" t="str">
+      <c r="H38" t="str">
         <v>监测比较</v>
       </c>
-      <c r="F38" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" t="str">
-        <v>医疗质量</v>
-      </c>
-      <c r="H38" t="str">
-        <v>质量安全</v>
-      </c>
       <c r="I38" t="b">
         <v>0</v>
       </c>
@@ -2062,80 +2062,80 @@
         <v>1</v>
       </c>
       <c r="M38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>通过国家室间质量评价的临床检验项目数▲</v>
-      </c>
-      <c r="B39" t="str">
+        <v>通过国家室间质量评价的临床检验项目数</v>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" t="str">
+        <v>质量安全</v>
+      </c>
+      <c r="D39" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E39" t="str">
         <v>国家卫生健康委</v>
       </c>
-      <c r="C39" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D39" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E39" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F39" t="b">
-        <v>1</v>
+      <c r="F39" t="str">
+        <v>定量</v>
       </c>
       <c r="G39" t="str">
-        <v>医疗质量</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H39" t="str">
-        <v>质量安全</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I39" t="b">
         <v>1</v>
       </c>
       <c r="J39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="b">
         <v>1</v>
       </c>
       <c r="M39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
         <v>优质护理服务病房覆盖率</v>
       </c>
-      <c r="B40" t="str">
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" t="str">
+        <v>质量安全</v>
+      </c>
+      <c r="D40" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E40" t="str">
         <v>医院填报</v>
       </c>
-      <c r="C40" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D40" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E40" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F40" t="b">
-        <v>1</v>
+      <c r="F40" t="str">
+        <v>定量</v>
       </c>
       <c r="G40" t="str">
-        <v>医疗质量</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H40" t="str">
-        <v>质量安全</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -2150,36 +2150,36 @@
         <v>1</v>
       </c>
       <c r="M40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
         <v>点评处方占处方总数的比例</v>
       </c>
-      <c r="B41" t="str">
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" t="str">
+        <v>合理用药</v>
+      </c>
+      <c r="D41" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E41" t="str">
         <v>医院填报</v>
       </c>
-      <c r="C41" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D41" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E41" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F41" t="b">
-        <v>1</v>
+      <c r="F41" t="str">
+        <v>定量</v>
       </c>
       <c r="G41" t="str">
-        <v>医疗质量</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H41" t="str">
-        <v>合理用药</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -2194,36 +2194,36 @@
         <v>1</v>
       </c>
       <c r="M41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
         <v>门诊患者基本药物处方占比</v>
       </c>
-      <c r="B42" t="str">
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" t="str">
+        <v>合理用药</v>
+      </c>
+      <c r="D42" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E42" t="str">
         <v>医院填报</v>
       </c>
-      <c r="C42" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D42" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E42" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F42" t="b">
-        <v>1</v>
+      <c r="F42" t="str">
+        <v>定量</v>
       </c>
       <c r="G42" t="str">
-        <v>医疗质量</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H42" t="str">
-        <v>合理用药</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
@@ -2238,36 +2238,36 @@
         <v>1</v>
       </c>
       <c r="M42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
         <v>住院患者基本药物使用率</v>
       </c>
-      <c r="B43" t="str">
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" t="str">
+        <v>合理用药</v>
+      </c>
+      <c r="D43" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E43" t="str">
         <v>医院填报</v>
       </c>
-      <c r="C43" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D43" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E43" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F43" t="b">
-        <v>1</v>
+      <c r="F43" t="str">
+        <v>定量</v>
       </c>
       <c r="G43" t="str">
-        <v>医疗质量</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H43" t="str">
-        <v>合理用药</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -2282,36 +2282,36 @@
         <v>1</v>
       </c>
       <c r="M43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
         <v>基本药物采购品种数占比</v>
       </c>
-      <c r="B44" t="str">
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" t="str">
+        <v>合理用药</v>
+      </c>
+      <c r="D44" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E44" t="str">
         <v>省级招采平台</v>
       </c>
-      <c r="C44" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D44" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E44" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F44" t="b">
-        <v>1</v>
+      <c r="F44" t="str">
+        <v>定量</v>
       </c>
       <c r="G44" t="str">
-        <v>医疗质量</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H44" t="str">
-        <v>合理用药</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -2326,36 +2326,36 @@
         <v>1</v>
       </c>
       <c r="M44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>国家组织药品集中采购中标药品使用比例</v>
-      </c>
-      <c r="B45" t="str">
+        <v>门诊患者平均预约诊疗率</v>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" t="str">
+        <v>服务流程</v>
+      </c>
+      <c r="D45" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E45" t="str">
         <v>医院填报</v>
       </c>
-      <c r="C45" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D45" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E45" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F45" t="b">
-        <v>1</v>
+      <c r="F45" t="str">
+        <v>定量</v>
       </c>
       <c r="G45" t="str">
-        <v>医疗质量</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H45" t="str">
-        <v>合理用药</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
@@ -2370,36 +2370,36 @@
         <v>1</v>
       </c>
       <c r="M45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>门诊患者平均预约诊疗率</v>
-      </c>
-      <c r="B46" t="str">
+        <v>门诊患者预约后平均等待时间</v>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" t="str">
+        <v>服务流程</v>
+      </c>
+      <c r="D46" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E46" t="str">
         <v>医院填报</v>
       </c>
-      <c r="C46" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D46" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E46" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F46" t="b">
-        <v>1</v>
+      <c r="F46" t="str">
+        <v>定量</v>
       </c>
       <c r="G46" t="str">
-        <v>医疗质量</v>
+        <v>分钟</v>
       </c>
       <c r="H46" t="str">
-        <v>服务流程</v>
+        <v>逐步降低↓</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
@@ -2414,36 +2414,36 @@
         <v>1</v>
       </c>
       <c r="M46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>门诊患者预约后平均等待时间</v>
-      </c>
-      <c r="B47" t="str">
+        <v>每名执业医师日均住院工作负担</v>
+      </c>
+      <c r="B47" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" t="str">
+        <v>资源效率</v>
+      </c>
+      <c r="D47" t="str">
+        <v>运营效率</v>
+      </c>
+      <c r="E47" t="str">
         <v>医院填报</v>
       </c>
-      <c r="C47" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D47" t="str">
-        <v>分钟</v>
-      </c>
-      <c r="E47" t="str">
-        <v>逐步降低↓</v>
-      </c>
-      <c r="F47" t="b">
-        <v>1</v>
+      <c r="F47" t="str">
+        <v>定量</v>
       </c>
       <c r="G47" t="str">
-        <v>医疗质量</v>
+        <v>床日</v>
       </c>
       <c r="H47" t="str">
-        <v>服务流程</v>
+        <v>监测比较</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -2458,37 +2458,37 @@
         <v>1</v>
       </c>
       <c r="M47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>每名执业医师日均住院工作负担</v>
-      </c>
-      <c r="B48" t="str">
+        <v>每百张病床药师人数</v>
+      </c>
+      <c r="B48" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" t="str">
+        <v>资源效率</v>
+      </c>
+      <c r="D48" t="str">
+        <v>运营效率</v>
+      </c>
+      <c r="E48" t="str">
         <v>医院填报</v>
       </c>
-      <c r="C48" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D48" t="str">
-        <v>床日</v>
-      </c>
-      <c r="E48" t="str">
+      <c r="F48" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G48" t="str">
+        <v>人</v>
+      </c>
+      <c r="H48" t="str">
         <v>监测比较</v>
       </c>
-      <c r="F48" t="b">
-        <v>0</v>
-      </c>
-      <c r="G48" t="str">
-        <v>运营效率</v>
-      </c>
-      <c r="H48" t="str">
-        <v>资源效率</v>
-      </c>
       <c r="I48" t="b">
         <v>0</v>
       </c>
@@ -2502,37 +2502,37 @@
         <v>1</v>
       </c>
       <c r="M48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>每百张病床药师人数</v>
-      </c>
-      <c r="B49" t="str">
-        <v>医院填报</v>
+        <v>门诊收入占医疗收入比例</v>
+      </c>
+      <c r="B49" t="b">
+        <v>0</v>
       </c>
       <c r="C49" t="str">
-        <v>定量</v>
+        <v>收支结构</v>
       </c>
       <c r="D49" t="str">
-        <v>人</v>
+        <v>运营效率</v>
       </c>
       <c r="E49" t="str">
+        <v>财务年报表</v>
+      </c>
+      <c r="F49" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G49" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H49" t="str">
         <v>监测比较</v>
       </c>
-      <c r="F49" t="b">
-        <v>0</v>
-      </c>
-      <c r="G49" t="str">
-        <v>运营效率</v>
-      </c>
-      <c r="H49" t="str">
-        <v>资源效率</v>
-      </c>
       <c r="I49" t="b">
         <v>0</v>
       </c>
@@ -2549,34 +2549,34 @@
         <v>0</v>
       </c>
       <c r="N49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>门诊收入占医疗收入比例</v>
-      </c>
-      <c r="B50" t="str">
+        <v>门诊收入中来自医保基金的比例</v>
+      </c>
+      <c r="B50" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" t="str">
+        <v>收支结构</v>
+      </c>
+      <c r="D50" t="str">
+        <v>运营效率</v>
+      </c>
+      <c r="E50" t="str">
         <v>财务年报表</v>
       </c>
-      <c r="C50" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D50" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E50" t="str">
+      <c r="F50" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G50" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H50" t="str">
         <v>监测比较</v>
       </c>
-      <c r="F50" t="b">
-        <v>0</v>
-      </c>
-      <c r="G50" t="str">
-        <v>运营效率</v>
-      </c>
-      <c r="H50" t="str">
-        <v>收支结构</v>
-      </c>
       <c r="I50" t="b">
         <v>0</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="M50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -2598,29 +2598,29 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>门诊收入中来自医保基金的比例</v>
-      </c>
-      <c r="B51" t="str">
+        <v>住院收入占医疗收入比例</v>
+      </c>
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" t="str">
+        <v>收支结构</v>
+      </c>
+      <c r="D51" t="str">
+        <v>运营效率</v>
+      </c>
+      <c r="E51" t="str">
         <v>财务年报表</v>
       </c>
-      <c r="C51" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D51" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E51" t="str">
+      <c r="F51" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G51" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H51" t="str">
         <v>监测比较</v>
       </c>
-      <c r="F51" t="b">
-        <v>0</v>
-      </c>
-      <c r="G51" t="str">
-        <v>运营效率</v>
-      </c>
-      <c r="H51" t="str">
-        <v>收支结构</v>
-      </c>
       <c r="I51" t="b">
         <v>0</v>
       </c>
@@ -2637,34 +2637,34 @@
         <v>0</v>
       </c>
       <c r="N51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>住院收入占医疗收入比例</v>
-      </c>
-      <c r="B52" t="str">
+        <v>住院收入中来自医保基金的比例</v>
+      </c>
+      <c r="B52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" t="str">
+        <v>收支结构</v>
+      </c>
+      <c r="D52" t="str">
+        <v>运营效率</v>
+      </c>
+      <c r="E52" t="str">
         <v>财务年报表</v>
       </c>
-      <c r="C52" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D52" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E52" t="str">
+      <c r="F52" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G52" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H52" t="str">
         <v>监测比较</v>
       </c>
-      <c r="F52" t="b">
-        <v>0</v>
-      </c>
-      <c r="G52" t="str">
-        <v>运营效率</v>
-      </c>
-      <c r="H52" t="str">
-        <v>收支结构</v>
-      </c>
       <c r="I52" t="b">
         <v>0</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="M52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
@@ -2686,29 +2686,29 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>住院收入中来自医保基金的比例</v>
-      </c>
-      <c r="B53" t="str">
-        <v>财务年报表</v>
+        <v>辅助用药收入占比</v>
+      </c>
+      <c r="B53" t="b">
+        <v>0</v>
       </c>
       <c r="C53" t="str">
-        <v>定量</v>
+        <v>收支结构</v>
       </c>
       <c r="D53" t="str">
-        <v>百分比（%）</v>
+        <v>运营效率</v>
       </c>
       <c r="E53" t="str">
+        <v>医院填报</v>
+      </c>
+      <c r="F53" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G53" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H53" t="str">
         <v>监测比较</v>
       </c>
-      <c r="F53" t="b">
-        <v>0</v>
-      </c>
-      <c r="G53" t="str">
-        <v>运营效率</v>
-      </c>
-      <c r="H53" t="str">
-        <v>收支结构</v>
-      </c>
       <c r="I53" t="b">
         <v>0</v>
       </c>
@@ -2725,39 +2725,39 @@
         <v>0</v>
       </c>
       <c r="N53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>辅助用药收入占比</v>
-      </c>
-      <c r="B54" t="str">
-        <v>医院填报</v>
+        <v>门诊次均费用增幅</v>
+      </c>
+      <c r="B54" t="b">
+        <v>1</v>
       </c>
       <c r="C54" t="str">
-        <v>定量</v>
+        <v>费用控制</v>
       </c>
       <c r="D54" t="str">
-        <v>百分比（%）</v>
+        <v>运营效率</v>
       </c>
       <c r="E54" t="str">
-        <v>监测比较</v>
-      </c>
-      <c r="F54" t="b">
-        <v>0</v>
+        <v>财务年报表</v>
+      </c>
+      <c r="F54" t="str">
+        <v>定量</v>
       </c>
       <c r="G54" t="str">
-        <v>运营效率</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H54" t="str">
-        <v>收支结构</v>
+        <v>逐步降低↓</v>
       </c>
       <c r="I54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="M54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -2774,342 +2774,342 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>人员支出占业务支出比重▲</v>
-      </c>
-      <c r="B55" t="str">
+        <v>门诊次均药品费用增幅</v>
+      </c>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" t="str">
+        <v>费用控制</v>
+      </c>
+      <c r="D55" t="str">
+        <v>运营效率</v>
+      </c>
+      <c r="E55" t="str">
         <v>财务年报表</v>
       </c>
-      <c r="C55" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D55" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E55" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F55" t="b">
-        <v>1</v>
+      <c r="F55" t="str">
+        <v>定量</v>
       </c>
       <c r="G55" t="str">
-        <v>运营效率</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H55" t="str">
-        <v>收支结构</v>
+        <v>逐步降低↓</v>
       </c>
       <c r="I55" t="b">
         <v>1</v>
       </c>
       <c r="J55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" t="b">
         <v>1</v>
       </c>
       <c r="M55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>万元收入能耗支出▲</v>
-      </c>
-      <c r="B56" t="str">
+        <v>住院次均费用增幅</v>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" t="str">
+        <v>费用控制</v>
+      </c>
+      <c r="D56" t="str">
+        <v>运营效率</v>
+      </c>
+      <c r="E56" t="str">
         <v>财务年报表</v>
       </c>
-      <c r="C56" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D56" t="str">
-        <v>吨标煤/万元</v>
-      </c>
-      <c r="E56" t="str">
+      <c r="F56" t="str">
+        <v>定量</v>
+      </c>
+      <c r="G56" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H56" t="str">
         <v>逐步降低↓</v>
       </c>
-      <c r="F56" t="b">
-        <v>1</v>
-      </c>
-      <c r="G56" t="str">
-        <v>运营效率</v>
-      </c>
-      <c r="H56" t="str">
-        <v>收支结构</v>
-      </c>
       <c r="I56" t="b">
         <v>1</v>
       </c>
       <c r="J56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" t="b">
         <v>1</v>
       </c>
       <c r="M56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>收支结余▲</v>
-      </c>
-      <c r="B57" t="str">
+        <v>住院次均药品费用增幅</v>
+      </c>
+      <c r="B57" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" t="str">
+        <v>费用控制</v>
+      </c>
+      <c r="D57" t="str">
+        <v>运营效率</v>
+      </c>
+      <c r="E57" t="str">
         <v>财务年报表</v>
       </c>
-      <c r="C57" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D57" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E57" t="str">
-        <v>监测比较</v>
-      </c>
-      <c r="F57" t="b">
-        <v>0</v>
+      <c r="F57" t="str">
+        <v>定量</v>
       </c>
       <c r="G57" t="str">
-        <v>运营效率</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H57" t="str">
-        <v>收支结构</v>
+        <v>逐步降低↓</v>
       </c>
       <c r="I57" t="b">
         <v>1</v>
       </c>
       <c r="J57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" t="b">
         <v>1</v>
       </c>
       <c r="M57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>门诊次均费用增幅▲</v>
-      </c>
-      <c r="B58" t="str">
-        <v>财务年报表</v>
+        <v>全面预算管理</v>
+      </c>
+      <c r="B58" t="b">
+        <v>0</v>
       </c>
       <c r="C58" t="str">
-        <v>定量</v>
+        <v>经济管理</v>
       </c>
       <c r="D58" t="str">
-        <v>百分比（%）</v>
+        <v>运营效率</v>
       </c>
       <c r="E58" t="str">
-        <v>逐步降低↓</v>
-      </c>
-      <c r="F58" t="b">
-        <v>1</v>
+        <v>医院填报</v>
+      </c>
+      <c r="F58" t="str">
+        <v>定性</v>
       </c>
       <c r="G58" t="str">
-        <v>运营效率</v>
+        <v>无</v>
       </c>
       <c r="H58" t="str">
-        <v>费用控制</v>
+        <v>逐步完善</v>
       </c>
       <c r="I58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="b">
         <v>0</v>
       </c>
       <c r="K58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" t="b">
         <v>1</v>
       </c>
       <c r="M58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>门诊次均药品费用增幅▲</v>
-      </c>
-      <c r="B59" t="str">
-        <v>财务年报表</v>
+        <v>规范设立总会计师</v>
+      </c>
+      <c r="B59" t="b">
+        <v>0</v>
       </c>
       <c r="C59" t="str">
-        <v>定量</v>
+        <v>经济管理</v>
       </c>
       <c r="D59" t="str">
-        <v>百分比（%）</v>
+        <v>运营效率</v>
       </c>
       <c r="E59" t="str">
-        <v>逐步降低↓</v>
-      </c>
-      <c r="F59" t="b">
-        <v>1</v>
+        <v>医院填报</v>
+      </c>
+      <c r="F59" t="str">
+        <v>定性</v>
       </c>
       <c r="G59" t="str">
-        <v>运营效率</v>
+        <v>无</v>
       </c>
       <c r="H59" t="str">
-        <v>费用控制</v>
+        <v>逐步完善</v>
       </c>
       <c r="I59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
       <c r="K59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" t="b">
         <v>1</v>
       </c>
       <c r="M59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>住院次均费用增幅▲</v>
-      </c>
-      <c r="B60" t="str">
-        <v>财务年报表</v>
+        <v>卫生技术人员职称结构</v>
+      </c>
+      <c r="B60" t="b">
+        <v>0</v>
       </c>
       <c r="C60" t="str">
-        <v>定量</v>
+        <v>人员结构</v>
       </c>
       <c r="D60" t="str">
-        <v>百分比（%）</v>
+        <v>持续发展</v>
       </c>
       <c r="E60" t="str">
-        <v>逐步降低↓</v>
-      </c>
-      <c r="F60" t="b">
-        <v>1</v>
+        <v>医院填报</v>
+      </c>
+      <c r="F60" t="str">
+        <v>定量</v>
       </c>
       <c r="G60" t="str">
-        <v>运营效率</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H60" t="str">
-        <v>费用控制</v>
+        <v>监测比较</v>
       </c>
       <c r="I60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="b">
         <v>0</v>
       </c>
       <c r="K60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" t="b">
         <v>1</v>
       </c>
       <c r="M60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>住院次均药品费用增幅▲</v>
-      </c>
-      <c r="B61" t="str">
-        <v>财务年报表</v>
+        <v>医院接受其他医院（尤其是对口支援医院、医联体内医院）进修并返回原医院独立工作人数占比</v>
+      </c>
+      <c r="B61" t="b">
+        <v>1</v>
       </c>
       <c r="C61" t="str">
-        <v>定量</v>
+        <v>人才培养</v>
       </c>
       <c r="D61" t="str">
-        <v>百分比（%）</v>
+        <v>持续发展</v>
       </c>
       <c r="E61" t="str">
-        <v>逐步降低↓</v>
-      </c>
-      <c r="F61" t="b">
-        <v>1</v>
+        <v>医院填报</v>
+      </c>
+      <c r="F61" t="str">
+        <v>定量</v>
       </c>
       <c r="G61" t="str">
-        <v>运营效率</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H61" t="str">
-        <v>费用控制</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
       <c r="K61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" t="b">
         <v>1</v>
       </c>
       <c r="M61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>全面预算管理</v>
-      </c>
-      <c r="B62" t="str">
-        <v>医院填报</v>
+        <v>医院住院医师首次参加医师资格考试通过率</v>
+      </c>
+      <c r="B62" t="b">
+        <v>1</v>
       </c>
       <c r="C62" t="str">
-        <v>定性</v>
+        <v>人才培养</v>
       </c>
       <c r="D62" t="str">
-        <v>无</v>
+        <v>持续发展</v>
       </c>
       <c r="E62" t="str">
-        <v>逐步完善</v>
-      </c>
-      <c r="F62" t="b">
-        <v>0</v>
+        <v>国家卫生健康委</v>
+      </c>
+      <c r="F62" t="str">
+        <v>定量</v>
       </c>
       <c r="G62" t="str">
-        <v>运营效率</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H62" t="str">
-        <v>经济管理</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -3118,36 +3118,36 @@
         <v>1</v>
       </c>
       <c r="M62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>规范设立总会计师</v>
-      </c>
-      <c r="B63" t="str">
+        <v>医院承担培养医学人才的工作成效</v>
+      </c>
+      <c r="B63" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" t="str">
+        <v>人才培养</v>
+      </c>
+      <c r="D63" t="str">
+        <v>持续发展</v>
+      </c>
+      <c r="E63" t="str">
         <v>医院填报</v>
       </c>
-      <c r="C63" t="str">
-        <v>定性</v>
-      </c>
-      <c r="D63" t="str">
-        <v>无</v>
-      </c>
-      <c r="E63" t="str">
-        <v>逐步完善</v>
-      </c>
-      <c r="F63" t="b">
-        <v>0</v>
+      <c r="F63" t="str">
+        <v>定量</v>
       </c>
       <c r="G63" t="str">
-        <v>运营效率</v>
+        <v>百分比（%）、人、篇、比值（1:X）</v>
       </c>
       <c r="H63" t="str">
-        <v>经济管理</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
@@ -3162,42 +3162,42 @@
         <v>1</v>
       </c>
       <c r="M63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>卫生技术人员职称结构</v>
-      </c>
-      <c r="B64" t="str">
+        <v>每百名卫生技术人员科研项目经费</v>
+      </c>
+      <c r="B64" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" t="str">
+        <v>学科建设</v>
+      </c>
+      <c r="D64" t="str">
+        <v>持续发展</v>
+      </c>
+      <c r="E64" t="str">
         <v>医院填报</v>
       </c>
-      <c r="C64" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D64" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E64" t="str">
-        <v>监测比较</v>
-      </c>
-      <c r="F64" t="b">
-        <v>0</v>
+      <c r="F64" t="str">
+        <v>定量</v>
       </c>
       <c r="G64" t="str">
-        <v>持续发展</v>
+        <v>元</v>
       </c>
       <c r="H64" t="str">
-        <v>人员结构</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
@@ -3206,36 +3206,36 @@
         <v>1</v>
       </c>
       <c r="M64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>医院接受其他医院（尤其是对口支援医院、医联体内医院）进修并返回原医院独立工作人数占比</v>
-      </c>
-      <c r="B65" t="str">
+        <v>每百名卫生技术人员科研成果转化金额</v>
+      </c>
+      <c r="B65" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" t="str">
+        <v>学科建设</v>
+      </c>
+      <c r="D65" t="str">
+        <v>持续发展</v>
+      </c>
+      <c r="E65" t="str">
         <v>医院填报</v>
       </c>
-      <c r="C65" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D65" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E65" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F65" t="b">
-        <v>1</v>
+      <c r="F65" t="str">
+        <v>定量</v>
       </c>
       <c r="G65" t="str">
-        <v>持续发展</v>
+        <v>元</v>
       </c>
       <c r="H65" t="str">
-        <v>人才培养</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
@@ -3253,83 +3253,83 @@
         <v>0</v>
       </c>
       <c r="N65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>医院住院医师首次参加医师资格考试通过率▲</v>
-      </c>
-      <c r="B66" t="str">
-        <v>国家卫生健康委</v>
+        <v>公共信用综合评价等级</v>
+      </c>
+      <c r="B66" t="b">
+        <v>0</v>
       </c>
       <c r="C66" t="str">
-        <v>定量</v>
+        <v>信用建设</v>
       </c>
       <c r="D66" t="str">
-        <v>百分比（%）</v>
+        <v>持续发展</v>
       </c>
       <c r="E66" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F66" t="b">
-        <v>1</v>
+        <v>国家发展改革委</v>
+      </c>
+      <c r="F66" t="str">
+        <v>定性</v>
       </c>
       <c r="G66" t="str">
-        <v>持续发展</v>
+        <v>无</v>
       </c>
       <c r="H66" t="str">
-        <v>人才培养</v>
+        <v>监测比较</v>
       </c>
       <c r="I66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="b">
         <v>0</v>
       </c>
       <c r="K66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" t="b">
         <v>1</v>
       </c>
       <c r="M66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>医院承担培养医学人才的工作成效</v>
-      </c>
-      <c r="B67" t="str">
-        <v>医院填报</v>
+        <v>门诊患者满意度</v>
+      </c>
+      <c r="B67" t="b">
+        <v>1</v>
       </c>
       <c r="C67" t="str">
-        <v>定量</v>
+        <v>患者满意度</v>
       </c>
       <c r="D67" t="str">
-        <v>百分比（%）、人、篇、比值（1:X）</v>
+        <v>满意度评价</v>
       </c>
       <c r="E67" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F67" t="b">
-        <v>1</v>
+        <v>国家卫生健康委</v>
+      </c>
+      <c r="F67" t="str">
+        <v>定量</v>
       </c>
       <c r="G67" t="str">
-        <v>持续发展</v>
+        <v>分值</v>
       </c>
       <c r="H67" t="str">
-        <v>人才培养</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
@@ -3338,95 +3338,95 @@
         <v>1</v>
       </c>
       <c r="M67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>每百名卫生技术人员科研项目经费▲</v>
-      </c>
-      <c r="B68" t="str">
-        <v>医院填报</v>
+        <v>住院患者满意度</v>
+      </c>
+      <c r="B68" t="b">
+        <v>1</v>
       </c>
       <c r="C68" t="str">
-        <v>定量</v>
+        <v>患者满意度</v>
       </c>
       <c r="D68" t="str">
-        <v>元</v>
+        <v>满意度评价</v>
       </c>
       <c r="E68" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F68" t="b">
-        <v>1</v>
+        <v>国家卫生健康委</v>
+      </c>
+      <c r="F68" t="str">
+        <v>定量</v>
       </c>
       <c r="G68" t="str">
-        <v>持续发展</v>
+        <v>分值</v>
       </c>
       <c r="H68" t="str">
-        <v>学科建设</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I68" t="b">
         <v>1</v>
       </c>
       <c r="J68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" t="b">
         <v>1</v>
       </c>
       <c r="M68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>每百名卫生技术人员科研成果转化金额</v>
-      </c>
-      <c r="B69" t="str">
+        <v>门诊中药处方比例</v>
+      </c>
+      <c r="B69" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" t="str">
+        <v>功能定位</v>
+      </c>
+      <c r="D69" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E69" t="str">
         <v>医院填报</v>
       </c>
-      <c r="C69" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D69" t="str">
-        <v>元</v>
-      </c>
-      <c r="E69" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F69" t="b">
-        <v>1</v>
+      <c r="F69" t="str">
+        <v>定量</v>
       </c>
       <c r="G69" t="str">
-        <v>持续发展</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H69" t="str">
-        <v>学科建设</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I69" t="b">
         <v>0</v>
       </c>
       <c r="J69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
       </c>
       <c r="L69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" t="b">
         <v>0</v>
@@ -3434,292 +3434,292 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>公共信用综合评价等级</v>
-      </c>
-      <c r="B70" t="str">
-        <v>国家发展改革委</v>
+        <v>门诊散装中药饮片和小包装中药饮片处方比例</v>
+      </c>
+      <c r="B70" t="b">
+        <v>1</v>
       </c>
       <c r="C70" t="str">
-        <v>定性</v>
+        <v>功能定位</v>
       </c>
       <c r="D70" t="str">
-        <v>无</v>
+        <v>医疗质量</v>
       </c>
       <c r="E70" t="str">
-        <v>监测比较</v>
-      </c>
-      <c r="F70" t="b">
-        <v>0</v>
+        <v>医院填报</v>
+      </c>
+      <c r="F70" t="str">
+        <v>定量</v>
       </c>
       <c r="G70" t="str">
-        <v>持续发展</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H70" t="str">
-        <v>信用建设</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I70" t="b">
         <v>0</v>
       </c>
       <c r="J70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
       </c>
       <c r="L70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>门诊患者满意度▲</v>
-      </c>
-      <c r="B71" t="str">
-        <v>国家卫生健康委</v>
+        <v>门诊患者中药饮片使用率</v>
+      </c>
+      <c r="B71" t="b">
+        <v>1</v>
       </c>
       <c r="C71" t="str">
-        <v>定量</v>
+        <v>功能定位</v>
       </c>
       <c r="D71" t="str">
-        <v>分值</v>
+        <v>医疗质量</v>
       </c>
       <c r="E71" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F71" t="b">
-        <v>1</v>
+        <v>医院填报</v>
+      </c>
+      <c r="F71" t="str">
+        <v>定量</v>
       </c>
       <c r="G71" t="str">
-        <v>满意度评价</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H71" t="str">
-        <v>患者满意度</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>住院患者满意度▲</v>
-      </c>
-      <c r="B72" t="str">
-        <v>国家卫生健康委</v>
+        <v>出院患者中药饮片使用率</v>
+      </c>
+      <c r="B72" t="b">
+        <v>1</v>
       </c>
       <c r="C72" t="str">
-        <v>定量</v>
+        <v>功能定位</v>
       </c>
       <c r="D72" t="str">
-        <v>分值</v>
+        <v>医疗质量</v>
       </c>
       <c r="E72" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F72" t="b">
-        <v>1</v>
+        <v>中医病案首页</v>
+      </c>
+      <c r="F72" t="str">
+        <v>定量</v>
       </c>
       <c r="G72" t="str">
-        <v>满意度评价</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H72" t="str">
-        <v>患者满意度</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>门诊中药处方比例▲</v>
-      </c>
-      <c r="B73" t="str">
+        <v>门诊患者使用中医非药物疗法比例</v>
+      </c>
+      <c r="B73" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" t="str">
+        <v>功能定位</v>
+      </c>
+      <c r="D73" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E73" t="str">
         <v>医院填报</v>
       </c>
-      <c r="C73" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D73" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E73" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F73" t="b">
-        <v>1</v>
+      <c r="F73" t="str">
+        <v>定量</v>
       </c>
       <c r="G73" t="str">
-        <v>医疗质量</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H73" t="str">
-        <v>功能定位</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I73" t="b">
         <v>0</v>
       </c>
       <c r="J73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" t="b">
         <v>0</v>
       </c>
       <c r="M73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>门诊散装中药饮片和小包装中药饮片处方比例▲</v>
-      </c>
-      <c r="B74" t="str">
-        <v>医院填报</v>
+        <v>出院患者使用中医非药物疗法比例</v>
+      </c>
+      <c r="B74" t="b">
+        <v>1</v>
       </c>
       <c r="C74" t="str">
-        <v>定量</v>
+        <v>功能定位</v>
       </c>
       <c r="D74" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="E74" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F74" t="b">
-        <v>1</v>
+        <v>中医病案首页</v>
+      </c>
+      <c r="F74" t="str">
+        <v>定量</v>
       </c>
       <c r="G74" t="str">
-        <v>医疗质量</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H74" t="str">
-        <v>功能定位</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I74" t="b">
         <v>0</v>
       </c>
       <c r="J74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" t="b">
         <v>0</v>
       </c>
       <c r="M74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>门诊患者中药饮片使用率▲</v>
-      </c>
-      <c r="B75" t="str">
-        <v>医院填报</v>
+        <v>以中医为主治疗的出院患者比例</v>
+      </c>
+      <c r="B75" t="b">
+        <v>1</v>
       </c>
       <c r="C75" t="str">
-        <v>定量</v>
+        <v>功能定位</v>
       </c>
       <c r="D75" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="E75" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F75" t="b">
-        <v>1</v>
+        <v>中医病案首页</v>
+      </c>
+      <c r="F75" t="str">
+        <v>定量</v>
       </c>
       <c r="G75" t="str">
-        <v>医疗质量</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H75" t="str">
-        <v>功能定位</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I75" t="b">
         <v>0</v>
       </c>
       <c r="J75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" t="b">
         <v>0</v>
       </c>
       <c r="M75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>出院患者中药饮片使用率▲</v>
-      </c>
-      <c r="B76" t="str">
+        <v>住院手术患者围手术期中医治疗比例</v>
+      </c>
+      <c r="B76" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" t="str">
+        <v>功能定位</v>
+      </c>
+      <c r="D76" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E76" t="str">
         <v>中医病案首页</v>
       </c>
-      <c r="C76" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D76" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E76" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F76" t="b">
-        <v>1</v>
+      <c r="F76" t="str">
+        <v>定量</v>
       </c>
       <c r="G76" t="str">
-        <v>医疗质量</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H76" t="str">
-        <v>功能定位</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I76" t="b">
         <v>0</v>
@@ -3728,42 +3728,42 @@
         <v>0</v>
       </c>
       <c r="K76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" t="b">
         <v>0</v>
       </c>
       <c r="M76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>门诊患者使用中医非药物疗法比例▲</v>
-      </c>
-      <c r="B77" t="str">
+        <v>理法方药使用一致的出院患者比例</v>
+      </c>
+      <c r="B77" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" t="str">
+        <v>质量安全</v>
+      </c>
+      <c r="D77" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="E77" t="str">
         <v>医院填报</v>
       </c>
-      <c r="C77" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D77" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E77" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F77" t="b">
-        <v>1</v>
+      <c r="F77" t="str">
+        <v>定量</v>
       </c>
       <c r="G77" t="str">
-        <v>医疗质量</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H77" t="str">
-        <v>功能定位</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I77" t="b">
         <v>0</v>
@@ -3772,42 +3772,42 @@
         <v>0</v>
       </c>
       <c r="K77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" t="b">
         <v>0</v>
       </c>
       <c r="M77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>出院患者使用中医非药物疗法比例▲</v>
-      </c>
-      <c r="B78" t="str">
-        <v>中医病案首页</v>
+        <v>点评中药处方占中药处方总数的比例</v>
+      </c>
+      <c r="B78" t="b">
+        <v>1</v>
       </c>
       <c r="C78" t="str">
-        <v>定量</v>
+        <v>合理用药</v>
       </c>
       <c r="D78" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="E78" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F78" t="b">
-        <v>1</v>
+        <v>医院填报</v>
+      </c>
+      <c r="F78" t="str">
+        <v>定量</v>
       </c>
       <c r="G78" t="str">
-        <v>医疗质量</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H78" t="str">
-        <v>功能定位</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I78" t="b">
         <v>0</v>
@@ -3816,42 +3816,42 @@
         <v>0</v>
       </c>
       <c r="K78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" t="b">
         <v>0</v>
       </c>
       <c r="M78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>以中医为主治疗的出院患者比例▲</v>
-      </c>
-      <c r="B79" t="str">
-        <v>中医病案首页</v>
+        <v>每名执业医师日均门诊工作负担</v>
+      </c>
+      <c r="B79" t="b">
+        <v>0</v>
       </c>
       <c r="C79" t="str">
-        <v>定量</v>
+        <v>资源效率</v>
       </c>
       <c r="D79" t="str">
-        <v>百分比（%）</v>
+        <v>运营效率</v>
       </c>
       <c r="E79" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F79" t="b">
-        <v>1</v>
+        <v>医院填报</v>
+      </c>
+      <c r="F79" t="str">
+        <v>定量</v>
       </c>
       <c r="G79" t="str">
-        <v>医疗质量</v>
+        <v>人次数</v>
       </c>
       <c r="H79" t="str">
-        <v>功能定位</v>
+        <v>监测比较</v>
       </c>
       <c r="I79" t="b">
         <v>0</v>
@@ -3860,42 +3860,42 @@
         <v>0</v>
       </c>
       <c r="K79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" t="b">
         <v>0</v>
       </c>
       <c r="M79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>住院手术患者围手术期中医治疗比例</v>
-      </c>
-      <c r="B80" t="str">
-        <v>中医病案首页</v>
+        <v>重点监控化学药品和生物制品收入占比</v>
+      </c>
+      <c r="B80" t="b">
+        <v>0</v>
       </c>
       <c r="C80" t="str">
-        <v>定量</v>
+        <v>收支结构</v>
       </c>
       <c r="D80" t="str">
-        <v>百分比（%）</v>
+        <v>运营效率</v>
       </c>
       <c r="E80" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F80" t="b">
-        <v>1</v>
+        <v>医院填报</v>
+      </c>
+      <c r="F80" t="str">
+        <v>定量</v>
       </c>
       <c r="G80" t="str">
-        <v>医疗质量</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H80" t="str">
-        <v>功能定位</v>
+        <v>监测比较</v>
       </c>
       <c r="I80" t="b">
         <v>0</v>
@@ -3910,42 +3910,42 @@
         <v>0</v>
       </c>
       <c r="M80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>理法方药使用一致的出院患者比例</v>
-      </c>
-      <c r="B81" t="str">
-        <v>医院填报</v>
+        <v>中药收入占药品收入比例</v>
+      </c>
+      <c r="B81" t="b">
+        <v>1</v>
       </c>
       <c r="C81" t="str">
-        <v>定量</v>
+        <v>收支结构</v>
       </c>
       <c r="D81" t="str">
-        <v>百分比（%）</v>
+        <v>运营效率</v>
       </c>
       <c r="E81" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F81" t="b">
-        <v>1</v>
+        <v>财务年报表</v>
+      </c>
+      <c r="F81" t="str">
+        <v>定量</v>
       </c>
       <c r="G81" t="str">
-        <v>医疗质量</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H81" t="str">
-        <v>质量安全</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I81" t="b">
         <v>0</v>
       </c>
       <c r="J81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
@@ -3954,42 +3954,42 @@
         <v>0</v>
       </c>
       <c r="M81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>点评中药处方占中药处方总数的比例</v>
-      </c>
-      <c r="B82" t="str">
-        <v>医院填报</v>
+        <v>中药饮片收入占药品收入比例</v>
+      </c>
+      <c r="B82" t="b">
+        <v>1</v>
       </c>
       <c r="C82" t="str">
-        <v>定量</v>
+        <v>收支结构</v>
       </c>
       <c r="D82" t="str">
-        <v>百分比（%）</v>
+        <v>运营效率</v>
       </c>
       <c r="E82" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F82" t="b">
-        <v>1</v>
+        <v>财务年报表</v>
+      </c>
+      <c r="F82" t="str">
+        <v>定量</v>
       </c>
       <c r="G82" t="str">
-        <v>医疗质量</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H82" t="str">
-        <v>合理用药</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I82" t="b">
         <v>0</v>
       </c>
       <c r="J82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
@@ -3998,42 +3998,42 @@
         <v>0</v>
       </c>
       <c r="M82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>每名执业医师日均门诊工作负担</v>
-      </c>
-      <c r="B83" t="str">
-        <v>医院填报</v>
+        <v>医疗机构中药制剂收入占药品收入比例</v>
+      </c>
+      <c r="B83" t="b">
+        <v>1</v>
       </c>
       <c r="C83" t="str">
-        <v>定量</v>
+        <v>收支结构</v>
       </c>
       <c r="D83" t="str">
-        <v>人次数</v>
+        <v>运营效率</v>
       </c>
       <c r="E83" t="str">
-        <v>监测比较</v>
-      </c>
-      <c r="F83" t="b">
-        <v>0</v>
+        <v>财务年报表、医院填报</v>
+      </c>
+      <c r="F83" t="str">
+        <v>定量</v>
       </c>
       <c r="G83" t="str">
-        <v>运营效率</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H83" t="str">
-        <v>资源效率</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I83" t="b">
         <v>0</v>
       </c>
       <c r="J83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
@@ -4042,42 +4042,42 @@
         <v>0</v>
       </c>
       <c r="M83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>重点监控化学药品和生物制品收入占比</v>
-      </c>
-      <c r="B84" t="str">
-        <v>医院填报</v>
+        <v>门诊中医医疗服务项目收入占门诊医疗收入比例</v>
+      </c>
+      <c r="B84" t="b">
+        <v>1</v>
       </c>
       <c r="C84" t="str">
-        <v>定量</v>
+        <v>收支结构</v>
       </c>
       <c r="D84" t="str">
-        <v>百分比（%）</v>
+        <v>运营效率</v>
       </c>
       <c r="E84" t="str">
-        <v>监测比较</v>
-      </c>
-      <c r="F84" t="b">
-        <v>0</v>
+        <v>财务年报表、医院填报</v>
+      </c>
+      <c r="F84" t="str">
+        <v>定量</v>
       </c>
       <c r="G84" t="str">
-        <v>运营效率</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H84" t="str">
-        <v>收支结构</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I84" t="b">
         <v>0</v>
       </c>
       <c r="J84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
@@ -4086,124 +4086,124 @@
         <v>0</v>
       </c>
       <c r="M84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>中药收入占药品收入比例▲</v>
-      </c>
-      <c r="B85" t="str">
-        <v>财务年报表</v>
+        <v>住院中医医疗服务项目收入占住院医疗收入比例</v>
+      </c>
+      <c r="B85" t="b">
+        <v>1</v>
       </c>
       <c r="C85" t="str">
-        <v>定量</v>
+        <v>收支结构</v>
       </c>
       <c r="D85" t="str">
-        <v>百分比（%）</v>
+        <v>运营效率</v>
       </c>
       <c r="E85" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F85" t="b">
-        <v>1</v>
+        <v>财务年报表、医院填报</v>
+      </c>
+      <c r="F85" t="str">
+        <v>定量</v>
       </c>
       <c r="G85" t="str">
-        <v>运营效率</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H85" t="str">
-        <v>收支结构</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I85" t="b">
         <v>0</v>
       </c>
       <c r="J85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" t="b">
         <v>0</v>
       </c>
       <c r="M85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>中药饮片收入占药品收入比例▲</v>
-      </c>
-      <c r="B86" t="str">
-        <v>财务年报表</v>
+        <v>中医类别执业医师（含执业助理医师）占执业医师总数比例</v>
+      </c>
+      <c r="B86" t="b">
+        <v>1</v>
       </c>
       <c r="C86" t="str">
-        <v>定量</v>
+        <v>人员结构</v>
       </c>
       <c r="D86" t="str">
-        <v>百分比（%）</v>
+        <v>持续发展</v>
       </c>
       <c r="E86" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F86" t="b">
-        <v>1</v>
+        <v>国家医疗机构、医师、护士电子化注册系统</v>
+      </c>
+      <c r="F86" t="str">
+        <v>定量</v>
       </c>
       <c r="G86" t="str">
-        <v>运营效率</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H86" t="str">
-        <v>收支结构</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I86" t="b">
         <v>0</v>
       </c>
       <c r="J86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86" t="b">
         <v>0</v>
       </c>
       <c r="M86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>医疗机构中药制剂收入占药品收入比例▲</v>
-      </c>
-      <c r="B87" t="str">
-        <v>财务年报表、医院填报</v>
+        <v>在岗的麻醉、儿科、重症、病理医师占比</v>
+      </c>
+      <c r="B87" t="b">
+        <v>1</v>
       </c>
       <c r="C87" t="str">
-        <v>定量</v>
+        <v>人员结构</v>
       </c>
       <c r="D87" t="str">
-        <v>百分比（%）</v>
+        <v>持续发展</v>
       </c>
       <c r="E87" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F87" t="b">
-        <v>1</v>
+        <v>国家医疗机构、医师、护士电子化注册系统</v>
+      </c>
+      <c r="F87" t="str">
+        <v>定量</v>
       </c>
       <c r="G87" t="str">
-        <v>运营效率</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H87" t="str">
-        <v>收支结构</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I87" t="b">
         <v>0</v>
@@ -4212,42 +4212,42 @@
         <v>0</v>
       </c>
       <c r="K87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87" t="b">
         <v>0</v>
       </c>
       <c r="M87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>门诊中医医疗服务项目收入占门诊医疗收入比例▲</v>
-      </c>
-      <c r="B88" t="str">
-        <v>财务年报表、医院填报</v>
+        <v>护理人员系统接受中医药知识和技能培训比例</v>
+      </c>
+      <c r="B88" t="b">
+        <v>1</v>
       </c>
       <c r="C88" t="str">
-        <v>定量</v>
+        <v>人员结构</v>
       </c>
       <c r="D88" t="str">
-        <v>百分比（%）</v>
+        <v>持续发展</v>
       </c>
       <c r="E88" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F88" t="b">
-        <v>1</v>
+        <v>医院填报</v>
+      </c>
+      <c r="F88" t="str">
+        <v>定量</v>
       </c>
       <c r="G88" t="str">
-        <v>运营效率</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H88" t="str">
-        <v>收支结构</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I88" t="b">
         <v>0</v>
@@ -4256,86 +4256,86 @@
         <v>0</v>
       </c>
       <c r="K88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88" t="b">
         <v>0</v>
       </c>
       <c r="M88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>住院中医医疗服务项目收入占住院医疗收入比例▲</v>
-      </c>
-      <c r="B89" t="str">
-        <v>财务年报表、医院填报</v>
+        <v>每百名卫生技术人员中医药科研项目经费</v>
+      </c>
+      <c r="B89" t="b">
+        <v>1</v>
       </c>
       <c r="C89" t="str">
-        <v>定量</v>
+        <v>学科建设</v>
       </c>
       <c r="D89" t="str">
-        <v>百分比（%）</v>
+        <v>持续发展</v>
       </c>
       <c r="E89" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F89" t="b">
-        <v>1</v>
+        <v>医院填报</v>
+      </c>
+      <c r="F89" t="str">
+        <v>定量</v>
       </c>
       <c r="G89" t="str">
-        <v>运营效率</v>
+        <v>元</v>
       </c>
       <c r="H89" t="str">
-        <v>收支结构</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I89" t="b">
         <v>0</v>
       </c>
       <c r="J89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" t="b">
         <v>0</v>
       </c>
       <c r="M89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>中医类别执业医师（含执业助理医师）占执业医师总数比例▲</v>
-      </c>
-      <c r="B90" t="str">
-        <v>国家医疗机构、医师、护士电子化注册系统</v>
+        <v>每百名卫生技术人员重点学科、重点专科经费投入</v>
+      </c>
+      <c r="B90" t="b">
+        <v>1</v>
       </c>
       <c r="C90" t="str">
-        <v>定量</v>
+        <v>学科建设</v>
       </c>
       <c r="D90" t="str">
-        <v>百分比（%）</v>
+        <v>持续发展</v>
       </c>
       <c r="E90" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F90" t="b">
-        <v>1</v>
+        <v>医院填报</v>
+      </c>
+      <c r="F90" t="str">
+        <v>定量</v>
       </c>
       <c r="G90" t="str">
-        <v>持续发展</v>
+        <v>元</v>
       </c>
       <c r="H90" t="str">
-        <v>人员结构</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I90" t="b">
         <v>0</v>
@@ -4344,42 +4344,42 @@
         <v>0</v>
       </c>
       <c r="K90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90" t="b">
         <v>0</v>
       </c>
       <c r="M90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>在岗的麻醉、儿科、重症、病理医师占比</v>
-      </c>
-      <c r="B91" t="str">
-        <v>国家医疗机构、医师、护士电子化注册系统</v>
+        <v>每百名卫生技术人员中医药科研成果转化金额</v>
+      </c>
+      <c r="B91" t="b">
+        <v>1</v>
       </c>
       <c r="C91" t="str">
-        <v>定量</v>
+        <v>学科建设</v>
       </c>
       <c r="D91" t="str">
-        <v>百分比（%）</v>
+        <v>持续发展</v>
       </c>
       <c r="E91" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F91" t="b">
-        <v>1</v>
+        <v>医院填报</v>
+      </c>
+      <c r="F91" t="str">
+        <v>定量</v>
       </c>
       <c r="G91" t="str">
-        <v>持续发展</v>
+        <v>元</v>
       </c>
       <c r="H91" t="str">
-        <v>人员结构</v>
+        <v>逐步提高↑</v>
       </c>
       <c r="I91" t="b">
         <v>0</v>
@@ -4394,191 +4394,15 @@
         <v>0</v>
       </c>
       <c r="M91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N91" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="str">
-        <v>护理人员系统接受中医药知识和技能培训比例</v>
-      </c>
-      <c r="B92" t="str">
-        <v>医院填报</v>
-      </c>
-      <c r="C92" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D92" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="E92" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F92" t="b">
-        <v>1</v>
-      </c>
-      <c r="G92" t="str">
-        <v>持续发展</v>
-      </c>
-      <c r="H92" t="str">
-        <v>人员结构</v>
-      </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" t="b">
-        <v>0</v>
-      </c>
-      <c r="K92" t="b">
-        <v>0</v>
-      </c>
-      <c r="L92" t="b">
-        <v>0</v>
-      </c>
-      <c r="M92" t="b">
-        <v>0</v>
-      </c>
-      <c r="N92" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="str">
-        <v>每百名卫生技术人员中医药科研项目经费▲</v>
-      </c>
-      <c r="B93" t="str">
-        <v>医院填报</v>
-      </c>
-      <c r="C93" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D93" t="str">
-        <v>元</v>
-      </c>
-      <c r="E93" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F93" t="b">
-        <v>1</v>
-      </c>
-      <c r="G93" t="str">
-        <v>持续发展</v>
-      </c>
-      <c r="H93" t="str">
-        <v>学科建设</v>
-      </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" t="b">
-        <v>0</v>
-      </c>
-      <c r="K93" t="b">
-        <v>1</v>
-      </c>
-      <c r="L93" t="b">
-        <v>0</v>
-      </c>
-      <c r="M93" t="b">
-        <v>0</v>
-      </c>
-      <c r="N93" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="str">
-        <v>每百名卫生技术人员重点学科、重点专科经费投入</v>
-      </c>
-      <c r="B94" t="str">
-        <v>医院填报</v>
-      </c>
-      <c r="C94" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D94" t="str">
-        <v>元</v>
-      </c>
-      <c r="E94" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F94" t="b">
-        <v>1</v>
-      </c>
-      <c r="G94" t="str">
-        <v>持续发展</v>
-      </c>
-      <c r="H94" t="str">
-        <v>学科建设</v>
-      </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" t="b">
-        <v>0</v>
-      </c>
-      <c r="K94" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" t="b">
-        <v>0</v>
-      </c>
-      <c r="M94" t="b">
-        <v>0</v>
-      </c>
-      <c r="N94" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="str">
-        <v>每百名卫生技术人员中医药科研成果转化金额</v>
-      </c>
-      <c r="B95" t="str">
-        <v>医院填报</v>
-      </c>
-      <c r="C95" t="str">
-        <v>定量</v>
-      </c>
-      <c r="D95" t="str">
-        <v>元</v>
-      </c>
-      <c r="E95" t="str">
-        <v>逐步提高↑</v>
-      </c>
-      <c r="F95" t="b">
-        <v>1</v>
-      </c>
-      <c r="G95" t="str">
-        <v>持续发展</v>
-      </c>
-      <c r="H95" t="str">
-        <v>学科建设</v>
-      </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" t="b">
-        <v>0</v>
-      </c>
-      <c r="K95" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" t="b">
-        <v>0</v>
-      </c>
-      <c r="M95" t="b">
-        <v>0</v>
-      </c>
-      <c r="N95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N95"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N91"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/Excel/indef2020Analyze.xlsx
+++ b/data/Excel/indef2020Analyze.xlsx
@@ -404,10 +404,10 @@
         <v>指标来源</v>
       </c>
       <c r="E1" t="str">
+        <v>三中</v>
+      </c>
+      <c r="F1" t="str">
         <v>三综</v>
-      </c>
-      <c r="F1" t="str">
-        <v>三中</v>
       </c>
       <c r="G1" t="str">
         <v>二综</v>
@@ -430,10 +430,10 @@
         <v>病案首页</v>
       </c>
       <c r="E2" t="str">
-        <v>✓</v>
+        <v>✕</v>
       </c>
       <c r="F2" t="str">
-        <v>✕</v>
+        <v>✓</v>
       </c>
       <c r="G2" t="str">
         <v>✓</v>
@@ -456,10 +456,10 @@
         <v>病案首页</v>
       </c>
       <c r="E3" t="str">
-        <v>✓</v>
+        <v>✕</v>
       </c>
       <c r="F3" t="str">
-        <v>✕</v>
+        <v>✓</v>
       </c>
       <c r="G3" t="str">
         <v>✓</v>
@@ -534,10 +534,10 @@
         <v>病案首页</v>
       </c>
       <c r="E6" t="str">
-        <v>✓</v>
+        <v>✕</v>
       </c>
       <c r="F6" t="str">
-        <v>✕</v>
+        <v>✓</v>
       </c>
       <c r="G6" t="str">
         <v>✓</v>
@@ -1028,10 +1028,10 @@
         <v>国家医疗机构、医师、护士电子化注册系统</v>
       </c>
       <c r="E25" t="str">
-        <v>✓</v>
+        <v>✕</v>
       </c>
       <c r="F25" t="str">
-        <v>✕</v>
+        <v>✓</v>
       </c>
       <c r="G25" t="str">
         <v>✓</v>
@@ -1158,10 +1158,10 @@
         <v>医院填报</v>
       </c>
       <c r="E30" t="str">
-        <v>✓✕</v>
+        <v>✕</v>
       </c>
       <c r="F30" t="str">
-        <v>✕</v>
+        <v>✓✕</v>
       </c>
       <c r="G30" t="str">
         <v>✕</v>
@@ -1236,10 +1236,10 @@
         <v>病案首页</v>
       </c>
       <c r="E33" t="str">
-        <v>✓</v>
+        <v>✕</v>
       </c>
       <c r="F33" t="str">
-        <v>✕</v>
+        <v>✓</v>
       </c>
       <c r="G33" t="str">
         <v>✕</v>
@@ -1262,10 +1262,10 @@
         <v>医院填报</v>
       </c>
       <c r="E34" t="str">
-        <v>✓✕</v>
+        <v>✕</v>
       </c>
       <c r="F34" t="str">
-        <v>✕</v>
+        <v>✓✕</v>
       </c>
       <c r="G34" t="str">
         <v>✕</v>
@@ -1314,10 +1314,10 @@
         <v>病案首页</v>
       </c>
       <c r="E36" t="str">
-        <v>✓</v>
+        <v>✕</v>
       </c>
       <c r="F36" t="str">
-        <v>✕</v>
+        <v>✓</v>
       </c>
       <c r="G36" t="str">
         <v>✕</v>
@@ -1652,10 +1652,10 @@
         <v>财务年报表</v>
       </c>
       <c r="E49" t="str">
-        <v>✓✕</v>
+        <v>✕</v>
       </c>
       <c r="F49" t="str">
-        <v>✕</v>
+        <v>✓✕</v>
       </c>
       <c r="G49" t="str">
         <v>✕</v>
@@ -1704,10 +1704,10 @@
         <v>财务年报表</v>
       </c>
       <c r="E51" t="str">
-        <v>✓✕</v>
+        <v>✕</v>
       </c>
       <c r="F51" t="str">
-        <v>✕</v>
+        <v>✓✕</v>
       </c>
       <c r="G51" t="str">
         <v>✕</v>
@@ -1756,10 +1756,10 @@
         <v>医院填报</v>
       </c>
       <c r="E53" t="str">
-        <v>✓✕</v>
+        <v>✕</v>
       </c>
       <c r="F53" t="str">
-        <v>✕</v>
+        <v>✓✕</v>
       </c>
       <c r="G53" t="str">
         <v>✕</v>
@@ -2068,10 +2068,10 @@
         <v>医院填报</v>
       </c>
       <c r="E65" t="str">
-        <v>✓✕</v>
+        <v>✕</v>
       </c>
       <c r="F65" t="str">
-        <v>✕</v>
+        <v>✓✕</v>
       </c>
       <c r="G65" t="str">
         <v>✕</v>
@@ -2172,10 +2172,10 @@
         <v>医院填报</v>
       </c>
       <c r="E69" t="str">
-        <v>✕</v>
+        <v>✓</v>
       </c>
       <c r="F69" t="str">
-        <v>✓</v>
+        <v>✕</v>
       </c>
       <c r="G69" t="str">
         <v>✕</v>
@@ -2198,10 +2198,10 @@
         <v>医院填报</v>
       </c>
       <c r="E70" t="str">
-        <v>✕</v>
+        <v>✓</v>
       </c>
       <c r="F70" t="str">
-        <v>✓</v>
+        <v>✕</v>
       </c>
       <c r="G70" t="str">
         <v>✕</v>
@@ -2224,10 +2224,10 @@
         <v>医院填报</v>
       </c>
       <c r="E71" t="str">
-        <v>✕</v>
+        <v>✓</v>
       </c>
       <c r="F71" t="str">
-        <v>✓</v>
+        <v>✕</v>
       </c>
       <c r="G71" t="str">
         <v>✕</v>
@@ -2250,10 +2250,10 @@
         <v>中医病案首页</v>
       </c>
       <c r="E72" t="str">
-        <v>✕</v>
+        <v>✓</v>
       </c>
       <c r="F72" t="str">
-        <v>✓</v>
+        <v>✕</v>
       </c>
       <c r="G72" t="str">
         <v>✕</v>
@@ -2276,10 +2276,10 @@
         <v>医院填报</v>
       </c>
       <c r="E73" t="str">
-        <v>✕</v>
+        <v>✓</v>
       </c>
       <c r="F73" t="str">
-        <v>✓</v>
+        <v>✕</v>
       </c>
       <c r="G73" t="str">
         <v>✕</v>
@@ -2302,10 +2302,10 @@
         <v>中医病案首页</v>
       </c>
       <c r="E74" t="str">
-        <v>✕</v>
+        <v>✓</v>
       </c>
       <c r="F74" t="str">
-        <v>✓</v>
+        <v>✕</v>
       </c>
       <c r="G74" t="str">
         <v>✕</v>
@@ -2328,10 +2328,10 @@
         <v>中医病案首页</v>
       </c>
       <c r="E75" t="str">
-        <v>✕</v>
+        <v>✓</v>
       </c>
       <c r="F75" t="str">
-        <v>✓</v>
+        <v>✕</v>
       </c>
       <c r="G75" t="str">
         <v>✕</v>
@@ -2354,10 +2354,10 @@
         <v>中医病案首页</v>
       </c>
       <c r="E76" t="str">
-        <v>✕</v>
+        <v>✓✕</v>
       </c>
       <c r="F76" t="str">
-        <v>✓✕</v>
+        <v>✕</v>
       </c>
       <c r="G76" t="str">
         <v>✕</v>
@@ -2380,10 +2380,10 @@
         <v>医院填报</v>
       </c>
       <c r="E77" t="str">
-        <v>✕</v>
+        <v>✓✕</v>
       </c>
       <c r="F77" t="str">
-        <v>✓✕</v>
+        <v>✕</v>
       </c>
       <c r="G77" t="str">
         <v>✕</v>
@@ -2406,10 +2406,10 @@
         <v>医院填报</v>
       </c>
       <c r="E78" t="str">
-        <v>✕</v>
+        <v>✓✕</v>
       </c>
       <c r="F78" t="str">
-        <v>✓✕</v>
+        <v>✕</v>
       </c>
       <c r="G78" t="str">
         <v>✕</v>
@@ -2432,10 +2432,10 @@
         <v>医院填报</v>
       </c>
       <c r="E79" t="str">
-        <v>✕</v>
+        <v>✓✕</v>
       </c>
       <c r="F79" t="str">
-        <v>✓✕</v>
+        <v>✕</v>
       </c>
       <c r="G79" t="str">
         <v>✕</v>
@@ -2458,10 +2458,10 @@
         <v>医院填报</v>
       </c>
       <c r="E80" t="str">
-        <v>✕</v>
+        <v>✓✕</v>
       </c>
       <c r="F80" t="str">
-        <v>✓✕</v>
+        <v>✕</v>
       </c>
       <c r="G80" t="str">
         <v>✕</v>
@@ -2484,10 +2484,10 @@
         <v>财务年报表</v>
       </c>
       <c r="E81" t="str">
-        <v>✕</v>
+        <v>✓</v>
       </c>
       <c r="F81" t="str">
-        <v>✓</v>
+        <v>✕</v>
       </c>
       <c r="G81" t="str">
         <v>✕</v>
@@ -2510,10 +2510,10 @@
         <v>财务年报表</v>
       </c>
       <c r="E82" t="str">
-        <v>✕</v>
+        <v>✓</v>
       </c>
       <c r="F82" t="str">
-        <v>✓</v>
+        <v>✕</v>
       </c>
       <c r="G82" t="str">
         <v>✕</v>
@@ -2536,10 +2536,10 @@
         <v>财务年报表、医院填报</v>
       </c>
       <c r="E83" t="str">
-        <v>✕</v>
+        <v>✓</v>
       </c>
       <c r="F83" t="str">
-        <v>✓</v>
+        <v>✕</v>
       </c>
       <c r="G83" t="str">
         <v>✕</v>
@@ -2562,10 +2562,10 @@
         <v>财务年报表、医院填报</v>
       </c>
       <c r="E84" t="str">
-        <v>✕</v>
+        <v>✓</v>
       </c>
       <c r="F84" t="str">
-        <v>✓</v>
+        <v>✕</v>
       </c>
       <c r="G84" t="str">
         <v>✕</v>
@@ -2588,10 +2588,10 @@
         <v>财务年报表、医院填报</v>
       </c>
       <c r="E85" t="str">
-        <v>✕</v>
+        <v>✓</v>
       </c>
       <c r="F85" t="str">
-        <v>✓</v>
+        <v>✕</v>
       </c>
       <c r="G85" t="str">
         <v>✕</v>
@@ -2614,10 +2614,10 @@
         <v>国家医疗机构、医师、护士电子化注册系统</v>
       </c>
       <c r="E86" t="str">
-        <v>✕</v>
+        <v>✓</v>
       </c>
       <c r="F86" t="str">
-        <v>✓</v>
+        <v>✕</v>
       </c>
       <c r="G86" t="str">
         <v>✕</v>
@@ -2640,10 +2640,10 @@
         <v>国家医疗机构、医师、护士电子化注册系统</v>
       </c>
       <c r="E87" t="str">
-        <v>✕</v>
+        <v>✓✕</v>
       </c>
       <c r="F87" t="str">
-        <v>✓✕</v>
+        <v>✕</v>
       </c>
       <c r="G87" t="str">
         <v>✕</v>
@@ -2666,10 +2666,10 @@
         <v>医院填报</v>
       </c>
       <c r="E88" t="str">
-        <v>✕</v>
+        <v>✓✕</v>
       </c>
       <c r="F88" t="str">
-        <v>✓✕</v>
+        <v>✕</v>
       </c>
       <c r="G88" t="str">
         <v>✕</v>
@@ -2692,10 +2692,10 @@
         <v>医院填报</v>
       </c>
       <c r="E89" t="str">
-        <v>✕</v>
+        <v>✓</v>
       </c>
       <c r="F89" t="str">
-        <v>✓</v>
+        <v>✕</v>
       </c>
       <c r="G89" t="str">
         <v>✕</v>
@@ -2718,10 +2718,10 @@
         <v>医院填报</v>
       </c>
       <c r="E90" t="str">
-        <v>✕</v>
+        <v>✓✕</v>
       </c>
       <c r="F90" t="str">
-        <v>✓✕</v>
+        <v>✕</v>
       </c>
       <c r="G90" t="str">
         <v>✕</v>
@@ -2744,10 +2744,10 @@
         <v>医院填报</v>
       </c>
       <c r="E91" t="str">
-        <v>✕</v>
+        <v>✓✕</v>
       </c>
       <c r="F91" t="str">
-        <v>✓✕</v>
+        <v>✕</v>
       </c>
       <c r="G91" t="str">
         <v>✕</v>
